--- a/evaluation/ORD-MMBench-Scoring-criteria.xlsx
+++ b/evaluation/ORD-MMBench-Scoring-criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslie/Desktop/research/code/GRADE-V/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linshutong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559FD831-BA4B-3B46-8ACF-F102B2A238D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C082E7-58F7-5F42-88F0-03DD084F4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B37D8822-6FE0-F846-9C91-74F5C989C4D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B37D8822-6FE0-F846-9C91-74F5C989C4D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,15 +37,9 @@
     <t>mention global_net_threshold</t>
   </si>
   <si>
-    <t>suggest setting a larger value of global_net_threshold</t>
-  </si>
-  <si>
     <t>both die and core area are mentioned</t>
   </si>
   <si>
-    <t>explain that width of the die is 200; mention that in the instruction `-x_offset` is set to be 300; mention the option "-x_offset"</t>
-  </si>
-  <si>
     <t>mention that `-x_offset` should be a value less than 200 or the die width</t>
   </si>
   <si>
@@ -57,9 +49,6 @@
     <t>explain that the number of pins in the `mirrored_pins` list must be even</t>
   </si>
   <si>
-    <t>mention option "-region"; mention option "-mirrored_pins"</t>
-  </si>
-  <si>
     <t>explain that `-region` and `-mirrored_pins` options can not be set at the same time</t>
   </si>
   <si>
@@ -75,159 +64,48 @@
     <t>explain the space is too small</t>
   </si>
   <si>
-    <t>provide the command "set_io_pin_constraint -region top:10-^ -pin_names {*}"(^ is a number larger than 30); give the solution about setting larger range of `-region`</t>
-  </si>
-  <si>
     <t>mention the option "-direction" or the option "-region"</t>
   </si>
   <si>
-    <t>give the command "set_io_pin_contraint -direction INPUT -region top:*"; mention using the command "place_pins" in the last step</t>
-  </si>
-  <si>
-    <t>mention using "-exclude" option; give the command "place_pins"</t>
-  </si>
-  <si>
-    <t>mention that pins are assigned to multiple groups; suggest that each pin should be assigned to one group;</t>
-  </si>
-  <si>
-    <t>mention using the "-force_to_die_boundary" flag; give the "place_pin" command</t>
-  </si>
-  <si>
     <t>mention that there are no routing tracks for metal3</t>
   </si>
   <si>
-    <t>suggest using "make_tracks" command to generate routing tracks; mention using the command "place_pins" in the last step</t>
-  </si>
-  <si>
-    <t>mention the use of "set_pin_length_extension" command; explain that command "set_pin_length_extension" can cause pins to extend outside the die area</t>
-  </si>
-  <si>
-    <t>mention that pin qq is not found in the design; suggest verifying that the pin qq exists in the design</t>
-  </si>
-  <si>
-    <t>explain that "place_pin" can only place one pin at a time; provide an example of a correct command, where the command `place_pin` only takes a pin</t>
-  </si>
-  <si>
     <t>mention the minimum width for metal7 is 0.4u</t>
   </si>
   <si>
-    <t>provide the command "place_pin -pin_name clk -layer metal7 -location {40 30} -pin_size {1.6 ^}"(^ is a number larger than or equal to 0.4); mention setting a larger number of pin height or mention that the pin height(0.35) is smaller than minimum width</t>
-  </si>
-  <si>
-    <t>suggest setting rows or columns; suggest changing the value of the "pitch"</t>
-  </si>
-  <si>
-    <t>give the option "-offset" in the "make_io_sites" command; explain the argument "-offset" controls the offset from the die edge to the row</t>
-  </si>
-  <si>
-    <t>mention that the terminal has no shape on the top layer (metal10); mention using "-allow_non_top_layer" flag in place_io_terminals command</t>
-  </si>
-  <si>
-    <t>mention the option "-offset" to adjust the bondpad placement; mention the command "place_bondpad"</t>
-  </si>
-  <si>
-    <t>mention that the correct master is PADCELL_SIG_V instead of PADCELL_SIG_H or give the correct command 'place_pad -master PADCELL_SIG_V -row IO_WEST -location 600 "u_ddr_cke_o"'; explain the error is due to a mismatch in the master cell</t>
-  </si>
-  <si>
     <t>mention using the "place_io_fill" command</t>
   </si>
   <si>
-    <t>mention enabling the "corner_max_wl" style; mention using command "macro_placement"</t>
-  </si>
-  <si>
-    <t>mention setting the option "-halo"; mention using command 'macro_placement'</t>
-  </si>
-  <si>
-    <t>mention using the "cut_rows" command to remove rows overlapping with the macro; give the option "-endcap_master"</t>
-  </si>
-  <si>
     <t>give the command "tapcell_ripup"</t>
   </si>
   <si>
-    <t>explain the error occurs due to no shapes or vias in the PDN grid; mention command "add_pdn_stripe"; mention command "add_pdn_connect"; mention using command "pdngen" in the last step</t>
-  </si>
-  <si>
-    <t>give the command "add_pdn_connect";</t>
-  </si>
-  <si>
-    <t>mention that the error is due to the missing connection between the two stripes before running 'pdngen'; provide the command "add_pdn_connect -layers {M1 M2}"</t>
-  </si>
-  <si>
-    <t>give the command "add_pdn_stripe"; mention using command "pdngen" in the last step</t>
-  </si>
-  <si>
     <t>mention increasing the value of -pitch to adjust the distance</t>
   </si>
   <si>
-    <t>mention enabling "-extend_to_boundary" flag; mention the command "add_pdn_ring"</t>
-  </si>
-  <si>
     <t>provide the command "define_pdn_grid"</t>
   </si>
   <si>
-    <t>explain the error is due to misalignment with the manufacturing grid; the widths is 2.001</t>
-  </si>
-  <si>
     <t>mention adjusting the width to a multiple of the grid value (0.0050)</t>
   </si>
   <si>
-    <t>explain the error is caused by non-fixed instances in the power grid; mention enabling option "-floorplanning"</t>
-  </si>
-  <si>
     <t>provide command "cluster_flops"</t>
   </si>
   <si>
     <t>mention the density setting should be larger value</t>
   </si>
   <si>
-    <t>give the command "global_placement -init_density_penalty 0.01 -skip_initial_place -density 0.6"; mention the density setting should be larger than or equal to 0.6</t>
-  </si>
-  <si>
-    <t>mention using the -incremental flag; mention using command "global_placement"</t>
-  </si>
-  <si>
-    <t>mention the command "remove_buffers"; give the command 'remove_buffers input1'</t>
-  </si>
-  <si>
-    <t>explain the warning is due to missing RC values; mention using the set_wire_rc command</t>
-  </si>
-  <si>
-    <t>explain the error occurs because the design is not routed; mention ensuring the design is routed or the command "global_route" is run before running "estimate_parasitics"</t>
-  </si>
-  <si>
-    <t>mention using "repair_clock_nets" command; mention using "-max_wire_length" option</t>
-  </si>
-  <si>
-    <t>mention the option " -max_displacement"; mention changing the value for "-max_displacement"</t>
-  </si>
-  <si>
     <t>mention that standard cell overlap with block</t>
   </si>
   <si>
     <t>mention that instances "not aligned with the grid"</t>
   </si>
   <si>
-    <t>mention enabling the `-obstruction_aware` flag; mention the command "clock_tree_synthesis"</t>
-  </si>
-  <si>
-    <t>mention using "clock_tree_synthesis" for balancing; mention enabling "-balance_levels"</t>
-  </si>
-  <si>
-    <t>provide command "draw_route_guides"; mention clknet_2_3__leaf_clk</t>
-  </si>
-  <si>
     <t>give command "draw_route_guides clknet_2_3__leaf_clk"</t>
   </si>
   <si>
-    <t>explain that the routing guide has not been generated; mention that "global_route" needs to be run before "draw_route_guides"</t>
-  </si>
-  <si>
     <t>mention using "-allow_congestion"</t>
   </si>
   <si>
-    <t>mention option "set_global_routing_layer_adjustment"; mention using command "global_route" in the final step</t>
-  </si>
-  <si>
     <t>mention Identification of the incorrect layer names</t>
   </si>
   <si>
@@ -256,15 +134,6 @@
   </si>
   <si>
     <t>mention loading the DRC report file from "DRC Viewer" -&gt; "Load"</t>
-  </si>
-  <si>
-    <t>provide the command "repair_timing"; give the option "-setup"</t>
-  </si>
-  <si>
-    <t>mention of enabling "-apply_ndr" flag; mention the command "clock_tree_synthesis"</t>
-  </si>
-  <si>
-    <t>mention using "-critical_nets_percentage" option; mention using command "global_route"</t>
   </si>
   <si>
     <t>query id</t>
@@ -278,17 +147,230 @@
   <si>
     <t>(1) give the command "initialize_floorplan" 
 (2) provide the option "-core_space"</t>
+  </si>
+  <si>
+    <t>(1) explain that width of the die is 200
+(2) mention that in the instruction `-x_offset` is set to be 300
+(3) mention the option "-x_offset"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "set_io_pin_contraint -direction INPUT -region top:*"
+(2) mention using the command "place_pins" in the last step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using "-exclude" option
+(2) give the command "place_pins"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using the "-force_to_die_boundary" flag
+(2) give the "place_pin" command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) suggest using "make_tracks" command to generate routing tracks
+(2) mention using the command "place_pins" in the last step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the use of "set_pin_length_extension" command
+(2) explain that command "set_pin_length_extension" can cause pins to extend outside the die area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that pin qq is not found in the design
+(2) suggest verifying that the pin qq exists in the design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "place_pin -pin_name clk -layer metal7 -location {40 30} -pin_size {1.6 ^}"(^ is a number larger than or equal to 0.4)
+(2) mention setting a larger number of pin height or mention that the pin height(0.35) is smaller than minimum width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) suggest setting rows or columns
+(2) suggest changing the value of the "pitch"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the option "-offset" in the "make_io_sites" command
+(2) explain the argument "-offset" controls the offset from the die edge to the row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that the terminal has no shape on the top layer (metal10)
+(2) mention using "-allow_non_top_layer" flag in place_io_terminals command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the option "-offset" to adjust the bondpad placement
+(2) mention the command "place_bondpad"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide the command "set_io_pin_constraint -region top:10-^ -pin_names {*}"(^ is a number larger than 30), or  give the solution about setting larger range of `-region`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain that "place_pin" can only place one pin at a time, or provide an example of a correct command, where the command `place_pin` only takes a pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that the correct master is PADCELL_SIG_V instead of PADCELL_SIG_H, or give the correct command 'place_pad -master PADCELL_SIG_V -row IO_WEST -location 600 "u_ddr_cke_o"'
+(2) explain the error is due to a mismatch in the master cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention enabling the "corner_max_wl" style
+(2) mention using command "macro_placement"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention setting the option "-halo"
+(2) mention using command 'macro_placement'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using the "cut_rows" command to remove rows overlapping with the macro
+(2) give the option "-endcap_master"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the error occurs due to no shapes or vias in the PDN grid
+(2) mention command "add_pdn_stripe"
+(3) mention command "add_pdn_connect"
+(4) mention using command "pdngen" in the last step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that the error is due to the missing connection between the two stripes before running 'pdngen'
+(2) provide the command "add_pdn_connect -layers {M1 M2}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give the command "add_pdn_connect"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "add_pdn_stripe"
+(2) mention using command "pdngen" in the last step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention enabling "-extend_to_boundary" flag
+(2) mention the command "add_pdn_ring"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the error is caused by non-fixed instances in the power grid
+(2) mention enabling option "-floorplanning"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give the command "global_placement -init_density_penalty 0.01 -skip_initial_place -density 0.6", or mention the density setting should be larger than or equal to 0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using the -incremental flag
+(2) mention using command "global_placement"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the command "remove_buffers"
+(2) give the command 'remove_buffers input1'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the warning is due to missing RC values
+(2) mention using the set_wire_rc command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the error occurs because the design is not routed
+(2) mention ensuring the design is routed or the command "global_route" is run before running "estimate_parasitics"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using "repair_clock_nets" command
+(2) mention using "-max_wire_length" option</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the option " -max_displacement"
+(2) mention changing the value for "-max_displacement"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention enabling the `-obstruction_aware` flag
+(2) mention the command "clock_tree_synthesis"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using "clock_tree_synthesis" for balancing
+(2) mention enabling "-balance_levels"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide command "draw_route_guides"
+(2) mention clknet_2_3__leaf_clk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain that the routing guide has not been generated
+(2) mention that "global_route" needs to be run before "draw_route_guides"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention option "set_global_routing_layer_adjustment"
+(2) mention using command "global_route" in the final step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "repair_timing"
+(2) give the option "-setup"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention of enabling "-apply_ndr" flag
+(2) mention the command "clock_tree_synthesis"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using "-critical_nets_percentage" option
+(2) mention using command "global_route"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the error is due to misalignment with the manufacturing grid
+(2) the widths is 2.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest setting a larger value of global_net_threshold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention option "-region"
+(2) mention option "-mirrored_pins"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that pins are assigned to multiple groups
+(2) suggest that each pin should be assigned to one group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -297,6 +379,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,7 +418,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -644,10 +733,10 @@
   <dimension ref="A2:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="43.83203125" style="2" customWidth="1"/>
@@ -656,9 +745,9 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>25</v>
@@ -670,7 +759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -678,609 +767,609 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="43">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="43">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="43">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="71">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="43">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="57">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="43">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="71">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="29">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="43">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="71">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="57">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="29">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="29">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="43">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="29">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="29">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="43">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="29">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="29">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="29">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="29">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="43">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1290,7 +1379,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="29">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1300,7 +1389,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="29">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1310,6 +1399,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/evaluation/ORD-MMBench-Scoring-criteria.xlsx
+++ b/evaluation/ORD-MMBench-Scoring-criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linshutong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C082E7-58F7-5F42-88F0-03DD084F4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1746558-AF90-9646-B595-F78F7884A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B37D8822-6FE0-F846-9C91-74F5C989C4D3}"/>
   </bookViews>
@@ -34,115 +34,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
-    <t>mention global_net_threshold</t>
-  </si>
-  <si>
-    <t>both die and core area are mentioned</t>
-  </si>
-  <si>
-    <t>mention that `-x_offset` should be a value less than 200 or the die width</t>
-  </si>
-  <si>
-    <t>mention option "-mirrored_pins"</t>
-  </si>
-  <si>
-    <t>explain that the number of pins in the `mirrored_pins` list must be even</t>
-  </si>
-  <si>
-    <t>explain that `-region` and `-mirrored_pins` options can not be set at the same time</t>
-  </si>
-  <si>
-    <t>mention option "-group"</t>
-  </si>
-  <si>
-    <t>mention option "-pin_names"</t>
-  </si>
-  <si>
-    <t>give the reason--the command needs to include both "-pin_names" and "-group"</t>
-  </si>
-  <si>
-    <t>explain the space is too small</t>
-  </si>
-  <si>
-    <t>mention the option "-direction" or the option "-region"</t>
-  </si>
-  <si>
-    <t>mention that there are no routing tracks for metal3</t>
-  </si>
-  <si>
-    <t>mention the minimum width for metal7 is 0.4u</t>
-  </si>
-  <si>
-    <t>mention using the "place_io_fill" command</t>
-  </si>
-  <si>
-    <t>give the command "tapcell_ripup"</t>
-  </si>
-  <si>
-    <t>mention increasing the value of -pitch to adjust the distance</t>
-  </si>
-  <si>
-    <t>provide the command "define_pdn_grid"</t>
-  </si>
-  <si>
-    <t>mention adjusting the width to a multiple of the grid value (0.0050)</t>
-  </si>
-  <si>
-    <t>provide command "cluster_flops"</t>
-  </si>
-  <si>
-    <t>mention the density setting should be larger value</t>
-  </si>
-  <si>
-    <t>mention that standard cell overlap with block</t>
-  </si>
-  <si>
-    <t>mention that instances "not aligned with the grid"</t>
-  </si>
-  <si>
-    <t>give command "draw_route_guides clknet_2_3__leaf_clk"</t>
-  </si>
-  <si>
-    <t>mention using "-allow_congestion"</t>
-  </si>
-  <si>
-    <t>mention Identification of the incorrect layer names</t>
-  </si>
-  <si>
-    <t>give the correct layer name "metal1-metal5"</t>
-  </si>
-  <si>
-    <t>provide the command "write_spef"</t>
-  </si>
-  <si>
-    <t>give the command "gui::highlight_net"</t>
-  </si>
-  <si>
-    <t>give the command "gui::highlight_net _01233_"</t>
-  </si>
-  <si>
-    <t>give the command "display_timing_cone"</t>
-  </si>
-  <si>
-    <t>provide the command "report_wire_length"</t>
-  </si>
-  <si>
-    <t>mention clicking the "Update" button</t>
-  </si>
-  <si>
-    <t>mention enabling option "Windows" -&gt; "DRC Viewer"</t>
-  </si>
-  <si>
-    <t>mention loading the DRC report file from "DRC Viewer" -&gt; "Load"</t>
-  </si>
-  <si>
     <t>query id</t>
-  </si>
-  <si>
-    <t>give the command "triton_part_design -global_net_threshold X" (X indicates a number greater than 1000)</t>
-  </si>
-  <si>
-    <t>mention utilization or "-utilization" in answer or command, or give the command "initialize_floorplan -utilization 70 -aspect_ratio 0.3"</t>
   </si>
   <si>
     <t>(1) give the command "initialize_floorplan" 
@@ -207,14 +99,6 @@
   <si>
     <t>(1) mention the option "-offset" to adjust the bondpad placement
 (2) mention the command "place_bondpad"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>provide the command "set_io_pin_constraint -region top:10-^ -pin_names {*}"(^ is a number larger than 30), or  give the solution about setting larger range of `-region`</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain that "place_pin" can only place one pin at a time, or provide an example of a correct command, where the command `place_pin` only takes a pin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>give the command "add_pdn_connect"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) give the command "add_pdn_stripe"
 (2) mention using command "pdngen" in the last step</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -269,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>give the command "global_placement -init_density_penalty 0.01 -skip_initial_place -density 0.6", or mention the density setting should be larger than or equal to 0.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) mention using the -incremental flag
 (2) mention using command "global_placement"</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -348,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>suggest setting a larger value of global_net_threshold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) mention option "-region"
 (2) mention option "-mirrored_pins"</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,6 +231,170 @@
   <si>
     <t>(1) mention that pins are assigned to multiple groups
 (2) suggest that each pin should be assigned to one group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention global_net_threshold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "triton_part_design -global_net_threshold X" (X indicates a number greater than 1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) suggest setting a larger value of global_net_threshold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) both die and core area are mentioned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention utilization or "-utilization" in answer or command, or give the command "initialize_floorplan -utilization 70 -aspect_ratio 0.3"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that `-x_offset` should be a value less than 200 or the die width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain that the number of pins in the `mirrored_pins` list must be even</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention option "-mirrored_pins"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain that `-region` and `-mirrored_pins` options can not be set at the same time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention option "-group"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention option "-pin_names"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the reason--the command needs to include both "-pin_names" and "-group"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "set_io_pin_constraint -region top:10-^ -pin_names {*}"(^ is a number larger than 30), or  give the solution about setting larger range of `-region`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain the space is too small</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the option "-direction" or the option "-region"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that there are no routing tracks for metal3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) explain that "place_pin" can only place one pin at a time, or provide an example of a correct command, where the command `place_pin` only takes a pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the minimum width for metal7 is 0.4u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using the "place_io_fill" command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "tapcell_ripup"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "define_pdn_grid"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention adjusting the width to a multiple of the grid value (0.0050)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide command "cluster_flops"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "global_placement -init_density_penalty 0.01 -skip_initial_place -density 0.6", or mention the density setting should be larger than or equal to 0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention the density setting should be larger value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that standard cell overlap with block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention that instances "not aligned with the grid"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give command "draw_route_guides clknet_2_3__leaf_clk"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention using "-allow_congestion"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention Identification of the incorrect layer names</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the correct layer name "metal1-metal5"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "write_spef"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "gui::highlight_net"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "gui::highlight_net _01233_"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "display_timing_cone"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) provide the command "report_wire_length"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention clicking the "Update" button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention loading the DRC report file from "DRC Viewer" -&gt; "Load"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention enabling option "Windows" -&gt; "DRC Viewer"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) give the command "add_pdn_connect"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) mention increasing the value of -pitch to adjust the distance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +769,7 @@
   <dimension ref="A2:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -747,7 +783,7 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>25</v>
@@ -759,30 +795,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29">
+    <row r="3" spans="1:4" ht="43">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29">
@@ -791,7 +827,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -800,11 +836,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29">
@@ -813,10 +849,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29">
@@ -824,11 +860,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
@@ -836,13 +872,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43">
@@ -850,11 +886,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43">
@@ -862,10 +898,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -875,7 +911,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -885,7 +921,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -895,7 +931,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -904,10 +940,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -917,7 +953,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -927,7 +963,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -938,7 +974,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71">
@@ -946,10 +982,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -959,7 +995,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -969,7 +1005,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -979,7 +1015,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -989,7 +1025,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -999,7 +1035,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1010,7 +1046,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29">
@@ -1019,7 +1055,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1029,7 +1065,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1039,7 +1075,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1050,7 +1086,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="71">
@@ -1058,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1068,10 +1104,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1080,10 +1116,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1093,7 +1129,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -1104,7 +1140,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43">
@@ -1112,10 +1148,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1125,7 +1161,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -1136,7 +1172,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43">
@@ -1145,10 +1181,10 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29">
@@ -1157,7 +1193,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -1167,7 +1203,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1177,7 +1213,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1187,7 +1223,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -1197,7 +1233,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1207,7 +1243,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -1218,7 +1254,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1228,7 +1264,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="29">
@@ -1237,7 +1273,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1247,7 +1283,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1"/>
     </row>
@@ -1257,10 +1293,10 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="43">
@@ -1269,7 +1305,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -1280,7 +1316,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29">
@@ -1289,7 +1325,7 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D52" s="1"/>
     </row>
@@ -1299,10 +1335,10 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1312,7 +1348,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1321,10 +1357,10 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1334,7 +1370,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1344,7 +1380,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1354,19 +1390,19 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29">
@@ -1375,7 +1411,7 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1"/>
     </row>
@@ -1385,7 +1421,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D61" s="1"/>
     </row>
@@ -1395,7 +1431,7 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
